--- a/biology/Médecine/Processus_zygomatique/Processus_zygomatique.xlsx
+++ b/biology/Médecine/Processus_zygomatique/Processus_zygomatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les processus zygomatiques sont les trois processus des trois os du crâne qui s'articulent avec l'os zygomatique :
-Le processus zygomatique de l'os frontal[1],
-Le processus zygomatique du maxillaire[2],
-Le processus zygomatique de l'os temporal[3].
+Le processus zygomatique de l'os frontal,
+Le processus zygomatique du maxillaire,
+Le processus zygomatique de l'os temporal.
 Le terme zygomatique dérive du grec Ζυγόμα, zygoma, signifiant "joug".
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Processus zygomatique de l'os frontal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le bord supra-orbitaire de l'os frontal se termine latéralement par le processus zygomatique de l'os frontal (ou apophyse orbitaire externe de l’os frontal). Il étend l'os frontal en dessous et latéralement et s'articule avec l'angle supérieur de l'os zygomatique..
@@ -547,7 +561,9 @@
           <t>Processus zygomatique du maxillaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le processus zygomatique du maxillaire (ou apophyse pyramidale du maxillaire ou apophyse malaire du maxillaire ou apophyse zygomatique du maxillaire) est une éminence triangulaire faisant saillie sur la face externe de l'os maxillaire.
 Il présente trois faces et un sommet :
@@ -582,7 +598,9 @@
           <t>Processus zygomatique de l'os temporal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus zygomatique de l'os temporal est un long processus arqué faisant saillie de la partie inférieure de l'écaille de l'os temporal au-dessus et en avant du méat acoustique externe. Il s'articule avec le processus temporal de l'os zygomatique.
 Ce processus se dirige latéralement, ses deux surfaces regardant vers le haut et vers le bas. Par torsion sur lui-même les deux surfaces deviennent médiale et latérale en se dirigeant vers l'avant.
